--- a/public_html/time/PratikPanchani_timesheet.xlsx
+++ b/public_html/time/PratikPanchani_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pratik Semester 6 IMP\PRJ566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A3EAA-5D22-4E98-9A0F-24484AD3C7B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA684F6-05B6-4DF1-9E9F-7E2EE15A0FA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="47">
   <si>
     <t>Status</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>Business rules related to Edit Profile and Quote reminder</t>
+  </si>
+  <si>
+    <t>Created Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Updated MS Project assignee to individual and Final Document Links</t>
+  </si>
+  <si>
+    <t>Reviewed the final document</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2600,7 @@
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6089,7 +6098,7 @@
       </c>
       <c r="F14" s="41">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>6.5833333333333339</v>
+        <v>7.7500000000000009</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8409,8 +8418,1008 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D2BB42-04B7-4484-B248-A12100F87CAA}">
   <dimension ref="A1:U54"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="51">
+        <v>43506</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="52">
+        <v>43503</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="52">
+        <v>43505</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="52">
+        <v>43506</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="3">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="52">
+        <v>43506</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="52">
+        <v>43506</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="41">
+        <f>SUM(F14:F31)/60</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85783FEF-7FC0-4464-8F56-5FBF81797002}">
+  <dimension ref="A1:U54"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8574,7 +9583,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="51">
-        <v>43506</v>
+        <v>43513</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -8737,10 +9746,10 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="52">
-        <v>43503</v>
+        <v>43512</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>35</v>
@@ -8761,16 +9770,16 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="52">
-        <v>43505</v>
+        <v>43513</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8785,16 +9794,16 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="52">
-        <v>43506</v>
+        <v>43513</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -8808,18 +9817,10 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="52">
-        <v>43506</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3">
-        <v>15</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8832,18 +9833,10 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="52">
-        <v>43506</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3">
-        <v>15</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -9088,965 +10081,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85783FEF-7FC0-4464-8F56-5FBF81797002}">
-  <dimension ref="A1:U54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="41">
-        <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>

--- a/public_html/time/PratikPanchani_timesheet.xlsx
+++ b/public_html/time/PratikPanchani_timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pratik Semester 6 IMP\PRJ566\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF437D7-7E6F-498A-975C-107823A92232}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B6431-2701-45D7-80AC-F050E8798279}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="66">
   <si>
     <t>Status</t>
   </si>
@@ -230,6 +230,42 @@
   </si>
   <si>
     <t>Solved ROI for Exercise 1</t>
+  </si>
+  <si>
+    <t>Reviwed Final Document</t>
+  </si>
+  <si>
+    <t>ROI Exercise 3</t>
+  </si>
+  <si>
+    <t>Sign In and Sign Out and Forgot Password Use case specification</t>
+  </si>
+  <si>
+    <t>Researched and Learned MongoDB queries</t>
+  </si>
+  <si>
+    <t>Completed populate table scipts</t>
+  </si>
+  <si>
+    <t>Worked on Acceptance Criteria part of final document</t>
+  </si>
+  <si>
+    <t>Final Document changes - Business Rules, Revision History and others</t>
+  </si>
+  <si>
+    <t>Reviewed other parts of the final document before submission</t>
+  </si>
+  <si>
+    <t>Prepared and researched for giving in class presentation (Design Part)</t>
+  </si>
+  <si>
+    <t>Reviewed final overall presentation</t>
+  </si>
+  <si>
+    <t>Prepeared for the presentation speech</t>
+  </si>
+  <si>
+    <t>Created slides for presenting user interface(Sample Mockups) and design part</t>
   </si>
 </sst>
 </file>
@@ -2615,11 +2651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351E88DC-E3DF-439C-9A75-97D1DE6BA36D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2899,17 +2935,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H10" location="'Jan-21'!A1" display="'Jan-21'!A1" xr:uid="{5D3CB53A-A029-4274-B42E-616671817AE2}"/>
-    <hyperlink ref="H11" location="'Jan-28'!A1" display="'Jan-28'!A1" xr:uid="{F9A032EB-194C-47E6-9201-05E7562611A2}"/>
-    <hyperlink ref="H12" location="'Feb-04'!A1" display="'Feb-04'!A1" xr:uid="{7A8AE59A-F22A-4DAA-B89A-F5E2258E7475}"/>
-    <hyperlink ref="H13" location="'Feb-11'!A1" display="'Feb-11'!A1" xr:uid="{39DFE399-A080-4985-B47E-B9FF522E4907}"/>
-    <hyperlink ref="H14" location="'Feb-17'!A1" display="'Feb-17'!A1" xr:uid="{25999E9C-1C25-42A3-9922-209000B916C3}"/>
-    <hyperlink ref="H15" location="'Feb-25'!A1" display="'Feb-25'!A1" xr:uid="{FA0CD331-3329-43F2-B28C-9C79EF6493D8}"/>
-    <hyperlink ref="H16" location="'Mar-11'!A1" display="'Mar-11'!A1" xr:uid="{ED5503FC-569B-4D1B-8D95-6D415506A9CC}"/>
-    <hyperlink ref="H17" location="'Mar-18'!A1" display="'Mar-18'!A1" xr:uid="{59FA8B12-B8AF-4206-ADAA-566662214B30}"/>
-    <hyperlink ref="H18" location="'Mar-25'!A1" display="'Mar-25'!A1" xr:uid="{25F13AB2-C7FC-47D2-87E7-B9D5E25F3779}"/>
-    <hyperlink ref="H19" location="'Apr-01'!A1" display="'Apr-01'!A1" xr:uid="{EC33EF91-79ED-4CB4-B868-4EE31EAB7823}"/>
-    <hyperlink ref="H20" location="'Apr-08'!A1" display="'Apr-08'!A1" xr:uid="{9B0C7D72-EB94-4642-A02A-0E1F5C49ACFE}"/>
+    <hyperlink ref="H10" location="'Jan-21'!A1" display="'Jan-21'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H11" location="'Jan-28'!A1" display="'Jan-28'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H12" location="'Feb-04'!A1" display="'Feb-04'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H13" location="'Feb-11'!A1" display="'Feb-11'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H14" location="'Feb-17'!A1" display="'Feb-17'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H15" location="'Feb-25'!A1" display="'Feb-25'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H16" location="'Mar-11'!A1" display="'Mar-11'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H17" location="'Mar-18'!A1" display="'Mar-18'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H18" location="'Mar-25'!A1" display="'Mar-25'!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H19" location="'Apr-01'!A1" display="'Apr-01'!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H20" location="'Apr-08'!A1" display="'Apr-08'!A1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2917,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AA2FE4-956A-4C20-8064-C57FB1BDEE0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3032,8 +3068,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="15" t="s">
-        <v>14</v>
+      <c r="C5" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -3082,7 +3118,9 @@
       <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="49">
+        <v>43556</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="21"/>
@@ -3130,7 +3168,9 @@
       <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="21"/>
@@ -3241,11 +3281,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
+      <c r="C14" s="50">
+        <v>43554</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3259,10 +3305,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="50">
+        <v>43554</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2">
+        <v>60</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3275,10 +3329,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="50">
+        <v>43555</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2">
+        <v>60</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3291,10 +3353,18 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="50">
+        <v>43555</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3555,7 +3625,7 @@
       </c>
       <c r="F33" s="40">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3875,17 +3945,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB6896D-2D5F-4CD5-BCF3-2F4EEAD84CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="0.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="0.85546875" customWidth="1"/>
@@ -3990,8 +4062,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="15" t="s">
-        <v>14</v>
+      <c r="C5" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -4040,7 +4112,9 @@
       <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="49">
+        <v>43562</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="21"/>
@@ -4088,7 +4162,9 @@
       <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="21"/>
@@ -4199,11 +4275,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
+      <c r="C14" s="50">
+        <v>43556</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>90</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4217,10 +4299,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="50">
+        <v>43557</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4233,10 +4323,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="50">
+        <v>43558</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2">
+        <v>60</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -4249,7 +4347,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -4513,7 +4611,7 @@
       </c>
       <c r="F33" s="40">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4833,7 +4931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E90CAA5-4387-4E32-87FF-377875C9F62D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5793,7 +5891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C68C73-B707-41AF-836F-8B1A74AC49BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6117,7 +6215,7 @@
       </c>
       <c r="F14" s="40">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>10.166666666666666</v>
+        <v>20.166666666666664</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6442,7 +6540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02F5D14-ABD0-4D31-BCE0-35C4EBB18676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7438,7 +7536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1542098-B847-4140-B316-D011494EF2C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8434,7 +8532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D2BB42-04B7-4484-B248-A12100F87CAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9434,7 +9532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85783FEF-7FC0-4464-8F56-5FBF81797002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10420,7 +10518,1967 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BC924B-9BED-42FD-84DE-FE0634E6301A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:U54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="49">
+        <v>43521</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="50">
+        <v>43518</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="40">
+        <f>SUM(F14:F31)/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:U54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="50">
+        <v>43531</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="50">
+        <v>43533</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="50">
+        <v>43533</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="50">
+        <v>43534</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="40">
+        <f>SUM(F14:F31)/60</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10536,7 +12594,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
       <c r="C5" s="39" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -10586,7 +12644,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="49">
-        <v>43521</v>
+        <v>43542</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -10636,7 +12694,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -10749,16 +12807,16 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="50">
-        <v>43518</v>
+        <v>43539</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -10772,10 +12830,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="50">
+        <v>43541</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -10788,10 +12854,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="50">
+        <v>43541</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2">
+        <v>30</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -10804,7 +12878,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -11068,7 +13142,7 @@
       </c>
       <c r="F33" s="40">
         <f>SUM(F14:F31)/60</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -11387,1002 +13461,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7491AEAD-FDAC-4732-BEC5-BBF26307D7D0}">
-  <dimension ref="A1:U54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="50">
-        <v>43531</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="50">
-        <v>43533</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2">
-        <v>40</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="50">
-        <v>43533</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2">
-        <v>30</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="50">
-        <v>43534</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="40">
-        <f>SUM(F14:F31)/60</f>
-        <v>1.9166666666666667</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBD318F-CC41-49E7-B3A6-51489FF13BC4}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12497,8 +13577,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="15" t="s">
-        <v>14</v>
+      <c r="C5" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -12547,7 +13627,9 @@
       <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="49">
+        <v>43549</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="21"/>
@@ -12595,7 +13677,9 @@
       <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="21"/>
@@ -12706,11 +13790,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
+      <c r="C14" s="50">
+        <v>43546</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -12724,10 +13814,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="50">
+        <v>43547</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2">
+        <v>60</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -12740,10 +13838,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="50">
+        <v>43548</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -13020,7 +14126,7 @@
       </c>
       <c r="F33" s="40">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -13337,962 +14443,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41223AE2-D6CA-449D-84C8-AA9FDE8BBAF2}">
-  <dimension ref="A1:U54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="40">
-        <f>SUM(F14:F31)/60</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>